--- a/Tarifas demo.xlsx
+++ b/Tarifas demo.xlsx
@@ -13240,7 +13240,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
